--- a/acervo separado/Acervo_Objeto_de_iluminacao.xlsx
+++ b/acervo separado/Acervo_Objeto_de_iluminacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\acervo separado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\projeto\acervo separado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{952CFEE2-ADBB-47E8-999D-9A289829C987}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3738784-12E8-48C0-BDFA-F04DBB0A2A40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Acervo!$A$1:$Q$9</definedName>
     <definedName name="acervo_be" localSheetId="0">Acervo!$A$1:$Q$9</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,15 +111,9 @@
     <t>RT ARM1</t>
   </si>
   <si>
-    <t>Metal</t>
-  </si>
-  <si>
     <t>Interiores</t>
   </si>
   <si>
-    <t>Metal dourado</t>
-  </si>
-  <si>
     <t>1392</t>
   </si>
   <si>
@@ -122,9 +123,6 @@
     <t>Arandelas (06 peças de lustre)</t>
   </si>
   <si>
-    <t>Cristal</t>
-  </si>
-  <si>
     <t>2,0 x 8,9 cm</t>
   </si>
   <si>
@@ -167,9 +165,6 @@
     <t>Tocheiro</t>
   </si>
   <si>
-    <t>Ferro</t>
-  </si>
-  <si>
     <t>154,0 x 50,0 cm</t>
   </si>
   <si>
@@ -246,6 +241,18 @@
   </si>
   <si>
     <t>94,0 cm</t>
+  </si>
+  <si>
+    <t>mattec_95</t>
+  </si>
+  <si>
+    <t>mattec_186</t>
+  </si>
+  <si>
+    <t>mattec_104</t>
+  </si>
+  <si>
+    <t>mattec_189</t>
   </si>
 </sst>
 </file>
@@ -631,7 +638,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,10 +716,10 @@
         <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -720,25 +727,25 @@
         <v>1392</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -753,13 +760,13 @@
         <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -767,25 +774,25 @@
         <v>1393</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>17</v>
@@ -806,10 +813,10 @@
         <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="S3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -817,22 +824,22 @@
         <v>1413</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
@@ -853,7 +860,7 @@
         <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -861,22 +868,22 @@
         <v>1413</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -897,10 +904,10 @@
         <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -908,22 +915,22 @@
         <v>2137</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -944,10 +951,10 @@
         <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="S6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -955,22 +962,22 @@
         <v>2138</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
         <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
       </c>
       <c r="J7" t="s">
         <v>17</v>
@@ -991,10 +998,10 @@
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="S7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1002,25 +1009,25 @@
         <v>1273</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
         <v>17</v>
@@ -1041,10 +1048,10 @@
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="S8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1052,25 +1059,25 @@
         <v>1274</v>
       </c>
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s">
         <v>17</v>
@@ -1091,10 +1098,10 @@
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="S9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
